--- a/Data/RemapDrafts/KeqingRemapDraft.xlsx
+++ b/Data/RemapDrafts/KeqingRemapDraft.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss-Fork\Tools\Linker\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB2076CE-BFE7-4FEA-B994-E36EDBE0F4EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FB5D8-8CEE-4AD7-804D-A18B230CB797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="34620" windowHeight="13900" xr2:uid="{7DEBADF7-A4B8-4729-A1B3-FCCE2A5EC46C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{7DEBADF7-A4B8-4729-A1B3-FCCE2A5EC46C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Version 4.8" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.8 -Keqing to KeqingOpulent" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.8 -Keqing to KeqingOpulent'!$A$1:$D$111</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>Keqing</t>
   </si>
@@ -50,18 +53,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>poufy thingy on Keqing's left sleeve, I don't think there is a corresponding index</t>
-  </si>
-  <si>
-    <t>poufy thingy on Keqing's right sleeve, I don't think there is a corresponding index</t>
-  </si>
-  <si>
-    <t>Charm decoration on Keqing's left thigh, I don't think there is a corresponding index</t>
-  </si>
-  <si>
-    <t>Feather decoration on Keqing's left thigh, I don't think there is a corresponding index</t>
-  </si>
-  <si>
     <t>Keqing's left upper arm, guard sleeve</t>
   </si>
   <si>
@@ -72,6 +63,21 @@
   </si>
   <si>
     <t>Keqing's upper left arm to elbow</t>
+  </si>
+  <si>
+    <t>poufy thingy on Keqing's left sleeve, I don't think there is a corresponding index (update: for stability, this should map to some index )</t>
+  </si>
+  <si>
+    <t>poufy thingy on Keqing's left sleeve, I don't think there is a corresponding index  (update: for stability, this should map to some index )</t>
+  </si>
+  <si>
+    <t>poufy thingy on Keqing's right sleeve, I don't think there is a corresponding index  (update: for stability, this should map to some index )</t>
+  </si>
+  <si>
+    <t>Charm decoration on Keqing's left thigh, I don't think there is a corresponding index  (update: for stability, this should map to some index )</t>
+  </si>
+  <si>
+    <t>Feather decoration on Keqing's left thigh, I don't think there is a corresponding index  (update: for stability, this should map to some index )</t>
   </si>
 </sst>
 </file>
@@ -469,18 +475,18 @@
   <dimension ref="A1:D111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D100" sqref="D100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="68.7265625" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="68.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -494,7 +500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -504,7 +510,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -514,7 +520,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -524,7 +530,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -536,7 +542,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -546,7 +552,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -556,7 +562,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -566,7 +572,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -576,7 +582,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -586,7 +592,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -596,7 +602,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -606,7 +612,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -616,7 +622,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -626,7 +632,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -636,7 +642,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -646,7 +652,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -656,7 +662,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -666,7 +672,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -676,7 +682,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -686,7 +692,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -696,7 +702,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -706,7 +712,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -718,7 +724,7 @@
       </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -730,7 +736,7 @@
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -740,7 +746,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -752,7 +758,7 @@
       </c>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -764,7 +770,7 @@
       </c>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -774,7 +780,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -784,7 +790,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -794,7 +800,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -804,7 +810,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -814,7 +820,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -824,7 +830,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -834,7 +840,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -844,7 +850,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -854,7 +860,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -864,7 +870,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -874,7 +880,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -884,7 +890,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -894,7 +900,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -905,10 +911,10 @@
         <v>0.2</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -919,10 +925,10 @@
         <v>0.15</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -934,7 +940,7 @@
       </c>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -944,7 +950,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -954,7 +960,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -964,7 +970,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -973,10 +979,10 @@
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -985,10 +991,10 @@
       </c>
       <c r="C48" s="1"/>
       <c r="D48" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -998,7 +1004,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1010,7 +1016,7 @@
       </c>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1020,7 +1026,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1030,7 +1036,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1040,7 +1046,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1050,7 +1056,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1060,7 +1066,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1070,7 +1076,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1080,7 +1086,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1100,7 +1106,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1110,7 +1116,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -1120,7 +1126,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -1130,7 +1136,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -1140,7 +1146,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -1150,7 +1156,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -1160,7 +1166,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -1170,7 +1176,7 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -1181,10 +1187,10 @@
         <v>0.05</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -1193,10 +1199,10 @@
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -1208,7 +1214,7 @@
       </c>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -1218,7 +1224,7 @@
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -1228,7 +1234,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -1238,7 +1244,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -1247,10 +1253,10 @@
       </c>
       <c r="C73" s="1"/>
       <c r="D73" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -1259,10 +1265,10 @@
       </c>
       <c r="C74" s="1"/>
       <c r="D74" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -1272,7 +1278,7 @@
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -1282,7 +1288,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -1294,7 +1300,7 @@
       </c>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -1306,7 +1312,7 @@
       </c>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -1318,7 +1324,7 @@
       </c>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -1328,7 +1334,7 @@
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -1338,7 +1344,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -1350,7 +1356,7 @@
       </c>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -1360,7 +1366,7 @@
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -1370,7 +1376,7 @@
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -1380,7 +1386,7 @@
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -1390,7 +1396,7 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -1400,7 +1406,7 @@
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -1410,7 +1416,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -1420,7 +1426,7 @@
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -1430,7 +1436,7 @@
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -1440,7 +1446,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -1452,7 +1458,7 @@
       </c>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -1462,7 +1468,7 @@
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -1472,7 +1478,7 @@
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -1484,7 +1490,7 @@
       </c>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -1494,7 +1500,7 @@
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -1504,57 +1510,57 @@
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -1564,7 +1570,7 @@
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -1574,7 +1580,7 @@
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -1586,7 +1592,7 @@
       </c>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -1596,7 +1602,7 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -1606,7 +1612,7 @@
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -1616,7 +1622,7 @@
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -1626,7 +1632,7 @@
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -1636,7 +1642,7 @@
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -1647,6 +1653,7 @@
       <c r="D111" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D111" xr:uid="{199F2C85-7A88-4940-B305-7A5E71997FD4}"/>
   <conditionalFormatting sqref="B2:B97">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>

--- a/Data/RemapDrafts/KeqingRemapDraft.xlsx
+++ b/Data/RemapDrafts/KeqingRemapDraft.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Computer\Games\Genshin\Repos\Repos\Fix-Raiden-Boss\Data\RemapDrafts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600FB5D8-8CEE-4AD7-804D-A18B230CB797}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF20805-BCFC-4605-B458-3F309F5AACFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="57840" windowHeight="15720" xr2:uid="{7DEBADF7-A4B8-4729-A1B3-FCCE2A5EC46C}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4.8 -Keqing to KeqingOpulent" sheetId="1" r:id="rId1"/>
+    <sheet name="V4.0 -Keqing to KeqingOpulent" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.8 -Keqing to KeqingOpulent'!$A$1:$D$111</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'V4.0 -Keqing to KeqingOpulent'!$A$1:$D$111</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
